--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\프로젝트 회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86AF72-018F-4DD8-A507-229B9A50C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9A9F1-86ED-441B-A4B8-C18D4B5193A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 조회/수정/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신고 접수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,38 @@
   </si>
   <si>
     <t>주문 조회/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 설명 이미지 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세 정보 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 노트북 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업회원가입 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 조회/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 조회/수정/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB52DA5-059C-43C0-AC51-AF7BDF69CA64}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A6493" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -600,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -661,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -775,6 +803,46 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -787,7 +855,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -805,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -979,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16836B4-7700-4D37-910F-6638F61DC7AE}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1000,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -1031,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1041,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1051,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1061,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1071,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1081,10 +1149,30 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용현\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9A9F1-86ED-441B-A4B8-C18D4B5193A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F080969-D0E7-4108-A2A5-99C0693D5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>개인 조회/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 조회/수정/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,18 +613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB52DA5-059C-43C0-AC51-AF7BDF69CA64}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6493" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,7 +638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -644,7 +648,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -654,7 +658,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -664,7 +668,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -674,7 +678,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -684,7 +688,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -694,7 +698,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -704,7 +708,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -714,7 +718,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -734,7 +738,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -744,7 +748,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -754,7 +758,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -764,7 +768,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -774,7 +778,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -794,7 +798,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -804,7 +808,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -814,7 +818,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -824,7 +828,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -834,7 +838,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -858,14 +862,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -879,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -889,7 +893,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -899,7 +903,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -909,7 +913,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -919,7 +923,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -929,7 +933,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -939,7 +943,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -949,7 +953,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -959,7 +963,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -969,7 +973,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -979,7 +983,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -989,7 +993,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1009,7 +1013,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1019,7 +1023,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1029,7 +1033,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1047,20 +1051,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16836B4-7700-4D37-910F-6638F61DC7AE}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1084,7 +1088,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1094,7 +1098,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1104,7 +1108,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1114,7 +1118,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1124,7 +1128,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1134,7 +1138,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1144,7 +1148,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1154,25 +1158,35 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용현\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F080969-D0E7-4108-A2A5-99C0693D5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CF099-7305-4AF7-84C6-DD9293E6DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
     <sheet name="Supplier 기능" sheetId="3" r:id="rId2"/>
     <sheet name="Admin 기능" sheetId="4" r:id="rId3"/>
+    <sheet name="Customer RestApi" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +197,294 @@
   </si>
   <si>
     <t>은행 조회/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/items/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/index/items/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 자세히보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/items/:id/imgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/items/new/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팁 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName, cpuName, gpuName, supplierName, registerYear, page, sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 아이템 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교 페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/graph/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/graph/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 아이템 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/graph/item/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 찜목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customers/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 최근 본 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 신고내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/picks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/recents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportedID, reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId, payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고완료 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/idInquiry/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/idInquiry/:email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pwInquiry/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pwInquiry/:email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=email이라 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 정보 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/banks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +540,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -275,13 +576,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +710,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,18 +1055,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB52DA5-059C-43C0-AC51-AF7BDF69CA64}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -638,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -648,7 +1090,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -658,7 +1100,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -668,7 +1110,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -678,7 +1120,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -688,7 +1130,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -698,7 +1140,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -708,7 +1150,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -718,7 +1160,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -728,7 +1170,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -738,7 +1180,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -748,7 +1190,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -758,7 +1200,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -768,7 +1210,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -778,7 +1220,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -788,7 +1230,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -798,7 +1240,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -808,7 +1250,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -818,7 +1260,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -828,7 +1270,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -838,7 +1280,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -862,14 +1304,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -883,7 +1325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -893,7 +1335,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -903,7 +1345,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -913,7 +1355,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -923,7 +1365,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -933,7 +1375,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -943,7 +1385,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -953,7 +1395,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -963,7 +1405,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -973,7 +1415,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -983,7 +1425,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -993,7 +1435,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1003,7 +1445,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1013,7 +1455,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1023,7 +1465,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1033,7 +1475,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1057,14 +1499,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1088,7 +1530,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1098,7 +1540,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1108,7 +1550,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1118,7 +1560,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1128,7 +1570,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1138,7 +1580,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1148,7 +1590,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1158,7 +1600,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1168,7 +1610,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1178,7 +1620,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1187,6 +1629,593 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
+  <dimension ref="B1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="10">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="10">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="10">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="10">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="10">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="10">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="10">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="10">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="10">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="10">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="10">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="10">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="10">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="10">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="10">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CF099-7305-4AF7-84C6-DD9293E6DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430DE1B-890A-4978-B86F-661F1E44D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/auth/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/auth/logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,6 +481,22 @@
   </si>
   <si>
     <t>/auth/email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/register/customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/register/supplier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -652,19 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -696,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,13 +729,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,14 +1055,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1090,7 +1086,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1100,7 +1096,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1110,7 +1106,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1120,7 +1116,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1130,7 +1126,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1140,7 +1136,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1150,7 +1146,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1160,7 +1156,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1170,7 +1166,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1180,7 +1176,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1190,7 +1186,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1200,7 +1196,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1210,7 +1206,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1220,7 +1216,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1230,7 +1226,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1240,7 +1236,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1250,7 +1246,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1260,7 +1256,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1270,7 +1266,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1280,7 +1276,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1304,14 +1300,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1335,7 +1331,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1345,7 +1341,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1355,7 +1351,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1365,7 +1361,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1375,7 +1371,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1385,7 +1381,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1395,7 +1391,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1405,7 +1401,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1415,7 +1411,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1425,7 +1421,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1445,7 +1441,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1455,7 +1451,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1465,7 +1461,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1475,7 +1471,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1499,14 +1495,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1530,7 +1526,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1540,7 +1536,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1550,7 +1546,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1560,7 +1556,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1570,7 +1566,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1580,7 +1576,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1590,7 +1586,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1600,7 +1596,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1610,7 +1606,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1620,7 +1616,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1638,24 +1634,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -1670,13 +1666,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1693,7 +1689,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -1710,7 +1706,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -1741,12 +1737,12 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -1763,7 +1759,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>6</v>
       </c>
@@ -1780,7 +1776,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>7</v>
       </c>
@@ -1799,7 +1795,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>8</v>
       </c>
@@ -1816,7 +1812,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -1833,7 +1829,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -1852,7 +1848,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -1869,7 +1865,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>12</v>
       </c>
@@ -1886,7 +1882,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>13</v>
       </c>
@@ -1903,7 +1899,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>14</v>
       </c>
@@ -1920,60 +1916,58 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>18</v>
       </c>
@@ -1981,241 +1975,260 @@
         <v>97</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="11">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430DE1B-890A-4978-B86F-661F1E44D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF304E56-16A6-42F3-9832-FB31F73073B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>배용현</author>
+  </authors>
+  <commentList>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{927D4EE4-BFC0-4BDB-A5E1-05EA0F73676F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>page: 1, 2, 3, …, n
+sort: recent, sales, views, price-low, price-high</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +522,10 @@
   </si>
   <si>
     <t>/auth/register/supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지, 정렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +548,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1633,11 +1669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1793,7 +1829,9 @@
         <v>62</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
@@ -2233,5 +2271,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF304E56-16A6-42F3-9832-FB31F73073B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC24076-6BFD-4376-B24D-452932D1F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,30 +317,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래프 아이템 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비교 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/graph/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/graph/items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 아이템 확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/graph/item/:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,6 +506,30 @@
   </si>
   <si>
     <t>페이지, 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comparison/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comparison/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comparison/item/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트단에서 처리하도록 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교 아이템 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교 아이템 확정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,7 +1677,7 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1687,7 @@
     <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1702,10 +1706,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1773,7 +1777,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1855,13 +1859,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1872,13 +1876,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>58</v>
@@ -1891,30 +1895,32 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1931,7 +1937,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1942,13 +1948,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1959,13 +1965,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1976,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1999,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2010,18 +2016,18 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -2029,18 +2035,18 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2048,13 +2054,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2065,13 +2071,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2082,13 +2088,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2099,13 +2105,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2116,13 +2122,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2133,13 +2139,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2150,13 +2156,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2167,13 +2173,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2190,10 +2196,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
@@ -2203,13 +2209,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2220,13 +2226,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2237,13 +2243,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2254,16 +2260,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC24076-6BFD-4376-B24D-452932D1F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74CACD-2BF5-498C-B148-0782AFEED3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>비교 아이템 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key, newPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB52DA5-059C-43C0-AC51-AF7BDF69CA64}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1532,7 +1536,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1676,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2079,7 +2083,9 @@
       <c r="E23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74CACD-2BF5-498C-B148-0782AFEED3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758AF27-6258-432C-A66E-CCFBE033170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/customer/recents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/customer/reports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +530,10 @@
   </si>
   <si>
     <t>key, newPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/recentFinds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1710,10 +1710,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1880,13 +1880,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>58</v>
@@ -1899,18 +1899,18 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1969,13 +1969,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1986,13 +1986,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2020,18 +2020,18 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -2039,18 +2039,18 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2058,13 +2058,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2075,16 +2075,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -2151,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2168,7 +2168,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2179,13 +2179,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2202,10 +2202,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
@@ -2215,13 +2215,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2232,13 +2232,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2249,13 +2249,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2266,16 +2266,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758AF27-6258-432C-A66E-CCFBE033170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5402D-7026-4C06-8BC5-5810154FF91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="38400" yWindow="5595" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>메인 페이지 접속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지 자세히보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +530,30 @@
   </si>
   <si>
     <t>/customer/recentFinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1678,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C97BF40-7CD3-4EE7-BE1E-9755732F8468}">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1710,10 +1730,10 @@
         <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1772,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -1781,7 +1801,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
@@ -1791,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1808,13 +1828,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1825,20 +1845,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1846,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1863,13 +1883,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1880,16 +1900,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -1899,18 +1919,18 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1918,13 +1938,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1941,7 +1961,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1952,13 +1972,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1969,13 +1989,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1986,13 +2006,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2009,7 +2029,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2020,18 +2040,18 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -2039,18 +2059,18 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2058,13 +2078,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2075,16 +2095,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -2094,13 +2114,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2111,13 +2131,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2128,13 +2148,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2145,13 +2165,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2162,13 +2182,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2179,13 +2199,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2202,10 +2222,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
@@ -2215,13 +2235,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2232,13 +2252,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2249,13 +2269,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2266,19 +2286,66 @@
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="10">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/프로젝트 회의록/기능테스트.xlsx
+++ b/프로젝트 회의록/기능테스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byh98\Desktop\GitHub\StuppingMall\프로젝트 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5402D-7026-4C06-8BC5-5810154FF91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361AD380-240F-4740-A4DD-09CA2C2C8851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="5595" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
+    <workbookView xWindow="-16320" yWindow="-7260" windowWidth="16440" windowHeight="28320" activeTab="3" xr2:uid="{E4CF1CAF-4740-494B-8FD6-E9F5FCF1639C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer 기능" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Customer RestApi" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1701,7 +1702,7 @@
   <dimension ref="B1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
